--- a/fp/fplk/srv/import/Example_import_WebWB.xlsx
+++ b/fp/fplk/srv/import/Example_import_WebWB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
   <si>
     <t>0.00</t>
   </si>
@@ -130,9 +130,6 @@
     <t>Описание груза</t>
   </si>
   <si>
-    <t>аа</t>
-  </si>
-  <si>
     <t>Страховая сумма</t>
   </si>
   <si>
@@ -142,10 +139,31 @@
     <t>Метод оплаты</t>
   </si>
   <si>
-    <t>Наличный</t>
-  </si>
-  <si>
-    <t>Безналичный</t>
+    <t>62123</t>
+  </si>
+  <si>
+    <t>По счету</t>
+  </si>
+  <si>
+    <t>Наличными</t>
+  </si>
+  <si>
+    <t>Плательщик</t>
+  </si>
+  <si>
+    <t>Отправитель</t>
+  </si>
+  <si>
+    <t>Получатель</t>
+  </si>
+  <si>
+    <t>аа1</t>
+  </si>
+  <si>
+    <t>аа3</t>
+  </si>
+  <si>
+    <t>аа2</t>
   </si>
 </sst>
 </file>
@@ -240,7 +258,10 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -323,32 +344,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B1:V2" totalsRowShown="0">
-  <autoFilter ref="B1:V2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B1:W2" totalsRowShown="0">
+  <autoFilter ref="B1:W2">
     <filterColumn colId="20"/>
+    <filterColumn colId="21"/>
   </autoFilter>
-  <tableColumns count="21">
-    <tableColumn id="1" name="Город отправителя" dataDxfId="22"/>
-    <tableColumn id="2" name="Наименование отправителя" dataDxfId="21"/>
-    <tableColumn id="3" name="Адрес отправителя" dataDxfId="20"/>
-    <tableColumn id="4" name="Имя контактного лица" dataDxfId="19"/>
-    <tableColumn id="5" name="Контактный телефон" dataDxfId="18"/>
-    <tableColumn id="6" name="Электронная почта" dataDxfId="17"/>
-    <tableColumn id="7" name="Описание отправителя" dataDxfId="16"/>
-    <tableColumn id="8" name="Город получателя" dataDxfId="15"/>
-    <tableColumn id="9" name="Название получателя" dataDxfId="14"/>
-    <tableColumn id="10" name="Адрес получателя" dataDxfId="13"/>
-    <tableColumn id="11" name="Контакт получателя" dataDxfId="12"/>
-    <tableColumn id="12" name="Телефон получателя" dataDxfId="11"/>
-    <tableColumn id="13" name="Почта получателя" dataDxfId="10" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="14" name="Описание получателя" dataDxfId="9"/>
-    <tableColumn id="16" name="Количество" dataDxfId="8"/>
-    <tableColumn id="17" name="Вес" dataDxfId="7"/>
-    <tableColumn id="18" name="Объемный вес" dataDxfId="6"/>
-    <tableColumn id="19" name="Тип груза" dataDxfId="5"/>
-    <tableColumn id="20" name="Описание груза" dataDxfId="4"/>
-    <tableColumn id="21" name="Страховая сумма" dataDxfId="3"/>
-    <tableColumn id="15" name="Метод оплаты" dataDxfId="2"/>
+  <tableColumns count="22">
+    <tableColumn id="1" name="Город отправителя" dataDxfId="23"/>
+    <tableColumn id="2" name="Наименование отправителя" dataDxfId="22"/>
+    <tableColumn id="3" name="Адрес отправителя" dataDxfId="21"/>
+    <tableColumn id="4" name="Имя контактного лица" dataDxfId="20"/>
+    <tableColumn id="5" name="Контактный телефон" dataDxfId="19"/>
+    <tableColumn id="6" name="Электронная почта" dataDxfId="18"/>
+    <tableColumn id="7" name="Описание отправителя" dataDxfId="17"/>
+    <tableColumn id="8" name="Город получателя" dataDxfId="16"/>
+    <tableColumn id="9" name="Название получателя" dataDxfId="15"/>
+    <tableColumn id="10" name="Адрес получателя" dataDxfId="14"/>
+    <tableColumn id="11" name="Контакт получателя" dataDxfId="13"/>
+    <tableColumn id="12" name="Телефон получателя" dataDxfId="12"/>
+    <tableColumn id="13" name="Почта получателя" dataDxfId="11" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="14" name="Описание получателя" dataDxfId="10"/>
+    <tableColumn id="16" name="Количество" dataDxfId="9"/>
+    <tableColumn id="17" name="Вес" dataDxfId="8"/>
+    <tableColumn id="18" name="Объемный вес" dataDxfId="7"/>
+    <tableColumn id="19" name="Тип груза" dataDxfId="6"/>
+    <tableColumn id="20" name="Описание груза" dataDxfId="5"/>
+    <tableColumn id="21" name="Страховая сумма" dataDxfId="4"/>
+    <tableColumn id="15" name="Метод оплаты" dataDxfId="3"/>
+    <tableColumn id="22" name="Плательщик" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -649,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -679,13 +702,13 @@
     <col min="20" max="20" width="18.42578125" style="2" customWidth="1"/>
     <col min="21" max="21" width="20" style="2" customWidth="1"/>
     <col min="22" max="22" width="19.5703125" customWidth="1"/>
-    <col min="23" max="23" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.28515625" customWidth="1"/>
     <col min="24" max="24" width="22" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
@@ -747,15 +770,18 @@
         <v>37</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="2" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="2">
-        <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -812,18 +838,21 @@
         <v>35</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="2">
-        <v>123</v>
+    <row r="3" spans="1:23">
+      <c r="A3" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -880,18 +909,21 @@
         <v>36</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V3" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="W3" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="2">
-        <v>123</v>
+    <row r="4" spans="1:23">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -948,13 +980,16 @@
         <v>35</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="W4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
